--- a/parabolic/2025/08/19/parabolic.xlsx
+++ b/parabolic/2025/08/19/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>206A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="D2" t="n">
-        <v>3007100</v>
+        <v>131400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="D3" t="n">
-        <v>192000</v>
+        <v>3917600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>901</v>
+        <v>445</v>
       </c>
       <c r="D4" t="n">
-        <v>584600</v>
+        <v>366600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>887</v>
       </c>
       <c r="D5" t="n">
-        <v>120000</v>
+        <v>765600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>781</v>
+        <v>980.5</v>
       </c>
       <c r="D6" t="n">
-        <v>743200</v>
+        <v>1947800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
-        <v>2503300</v>
+        <v>142200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9610</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,131 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>139</v>
+        <v>645</v>
       </c>
       <c r="D8" t="n">
-        <v>785200</v>
+        <v>293400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>6634</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>116900</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>456</v>
+      </c>
+      <c r="D10" t="n">
+        <v>232500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8698</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>786</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1482300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>117</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4560600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9610</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>145</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1382100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/19/parabolic.xlsx
+++ b/parabolic/2025/08/19/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" t="n">
-        <v>131400</v>
+        <v>165100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>3917600</v>
+        <v>9299800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>445</v>
+        <v>595</v>
       </c>
       <c r="D4" t="n">
-        <v>366600</v>
+        <v>511400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>887</v>
+        <v>422</v>
       </c>
       <c r="D5" t="n">
-        <v>765600</v>
+        <v>451400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>980.5</v>
+        <v>566</v>
       </c>
       <c r="D6" t="n">
-        <v>1947800</v>
+        <v>253600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129</v>
+        <v>784</v>
       </c>
       <c r="D7" t="n">
-        <v>142200</v>
+        <v>133200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>645</v>
+        <v>894</v>
       </c>
       <c r="D8" t="n">
-        <v>293400</v>
+        <v>854700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>141</v>
+        <v>902</v>
       </c>
       <c r="D9" t="n">
-        <v>116900</v>
+        <v>124200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>456</v>
+        <v>982</v>
       </c>
       <c r="D10" t="n">
-        <v>232500</v>
+        <v>2565700</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>786</v>
+        <v>131</v>
       </c>
       <c r="D11" t="n">
-        <v>1482300</v>
+        <v>263700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>6099</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>117</v>
+        <v>869</v>
       </c>
       <c r="D12" t="n">
-        <v>4560600</v>
+        <v>116200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9610</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,16 +735,131 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>145</v>
+        <v>655</v>
       </c>
       <c r="D13" t="n">
-        <v>1382100</v>
+        <v>607300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>6634</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>141</v>
+      </c>
+      <c r="D14" t="n">
+        <v>150200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>458</v>
+      </c>
+      <c r="D15" t="n">
+        <v>400400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8698</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>795</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3288300</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>122</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5223700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9610</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>144</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2951900</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/19/parabolic.xlsx
+++ b/parabolic/2025/08/19/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
-        <v>165100</v>
+        <v>193000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D3" t="n">
-        <v>9299800</v>
+        <v>18921900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D4" t="n">
-        <v>511400</v>
+        <v>621500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="n">
-        <v>451400</v>
+        <v>559700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D6" t="n">
-        <v>253600</v>
+        <v>511600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D7" t="n">
-        <v>133200</v>
+        <v>149000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D8" t="n">
-        <v>854700</v>
+        <v>999800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>902</v>
+        <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>124200</v>
+        <v>117100</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="D10" t="n">
-        <v>2565700</v>
+        <v>211400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>131</v>
+        <v>982.7000122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>263700</v>
+        <v>4252100</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6099</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>869</v>
+        <v>129</v>
       </c>
       <c r="D12" t="n">
-        <v>116200</v>
+        <v>318400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6099</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>655</v>
+        <v>865</v>
       </c>
       <c r="D13" t="n">
-        <v>607300</v>
+        <v>171400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>654</v>
       </c>
       <c r="D14" t="n">
-        <v>150200</v>
+        <v>780400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>6634</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>458</v>
+        <v>143</v>
       </c>
       <c r="D15" t="n">
-        <v>400400</v>
+        <v>218700</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>7463</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>795</v>
+        <v>896</v>
       </c>
       <c r="D16" t="n">
-        <v>3288300</v>
+        <v>114000</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>7868</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>122</v>
+        <v>459</v>
       </c>
       <c r="D17" t="n">
-        <v>5223700</v>
+        <v>525300</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9610</t>
+          <t>8698</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,62 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>144</v>
+        <v>793</v>
       </c>
       <c r="D18" t="n">
-        <v>2951900</v>
+        <v>5056600</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>122</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6089700</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9610</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>139</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3154100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
